--- a/SQACompensar/Data/DatosCompensar.xlsx
+++ b/SQACompensar/Data/DatosCompensar.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC26F24-5EDC-4A05-B004-2DEC2427460E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="10360"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginUsuario" sheetId="1" r:id="rId1"/>
     <sheet name="Experiencia" sheetId="3" r:id="rId2"/>
-    <sheet name="PuntosMasOtro" sheetId="4" r:id="rId3"/>
-    <sheet name="Listas" sheetId="2" r:id="rId4"/>
+    <sheet name="LoginAdmin" sheetId="5" r:id="rId3"/>
+    <sheet name="Inventario" sheetId="4" r:id="rId4"/>
+    <sheet name="Listas" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>https://www.preaws.compensar.co/auth/pre-login</t>
   </si>
@@ -58,9 +60,6 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t>Puntos</t>
-  </si>
-  <si>
     <t>Ab123456</t>
   </si>
   <si>
@@ -94,33 +93,6 @@
     <t>Sin Puntos</t>
   </si>
   <si>
-    <t>Banco</t>
-  </si>
-  <si>
-    <t>TipoPersona</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Celular</t>
-  </si>
-  <si>
-    <t>Direccion</t>
-  </si>
-  <si>
-    <t>TipoIdentificacion</t>
-  </si>
-  <si>
-    <t>NoDocumento</t>
-  </si>
-  <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>BANCO UNION COLOMBIANO</t>
-  </si>
-  <si>
     <t>Ripo Persona</t>
   </si>
   <si>
@@ -130,25 +102,49 @@
     <t>Persona Jurídica</t>
   </si>
   <si>
-    <t>Pruebas</t>
-  </si>
-  <si>
-    <t>Cra 56 a</t>
-  </si>
-  <si>
     <t>Pasaporte</t>
   </si>
   <si>
     <t>Tarjeta de Identidad</t>
   </si>
   <si>
-    <t>pruebas@gmail.com</t>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>PAIS DE EMISIÓN</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Polonia</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Saluda al sol, relájate y conéctate con lo ancestral en nuestro curso de yoga</t>
+  </si>
+  <si>
+    <t>¿Quieres recibir hasta el 50% de descuento en nuestros hoteles Lagosol o Lagomar?</t>
+  </si>
+  <si>
+    <t>Curso virtual de pintura en acuarela</t>
+  </si>
+  <si>
+    <t>Buscar Inventario</t>
+  </si>
+  <si>
+    <t>Crepes&amp;Waffles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +195,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +214,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -232,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -253,6 +255,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -272,9 +281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -312,9 +321,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,7 +358,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,7 +393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -557,11 +566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,7 +598,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1000134386</v>
@@ -604,34 +613,34 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.preaws.compensar.co/auth/pre-login"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D0830526-819D-465F-BE4C-F6AA4663B1FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CD47EFC-F1E2-43A2-A098-EB410E2947CB}">
           <x14:formula1>
             <xm:f>Listas!$F$2:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$I$2:$I$5</xm:f>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>Listas!$I$2:$I$4</xm:f>
           </x14:formula1>
           <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$H$2:$H$5</xm:f>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7B8F80A8-84D4-42A7-AA85-7E0C76F4EB0A}">
+          <x14:formula1>
+            <xm:f>Listas!$H$2:$H$4</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
@@ -642,18 +651,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="59.6328125" customWidth="1"/>
     <col min="2" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="51.54296875" customWidth="1"/>
+    <col min="4" max="4" width="61.08984375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -665,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -685,10 +694,10 @@
         <v>53021207</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -697,43 +706,64 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1000005222</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{28918E51-C663-430C-9DEA-E7ECD7D24868}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$C$2:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <xm:sqref>E2:E3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>Listas!$C$2:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Listas!$F$2:$F$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$H$2:$H$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$I$2:$I$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
+          <xm:sqref>A2:A3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+          <x14:formula1>
+            <xm:f>Listas!$N$2:$N$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65F150D7-12C3-4579-8550-9F8FBA3B7981}">
+          <x14:formula1>
+            <xm:f>Listas!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -742,166 +772,82 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FEBC88-9A83-4609-9C4D-B8D73E0B7A13}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="51.7265625" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="58.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
-        <v>53021207</v>
+        <v>1000134386</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2">
-        <v>3201234567</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2">
-        <v>1101018444</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="O2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.preaws.compensar.co/auth/pre-login" xr:uid="{F4438F95-4C3E-48B5-AEC9-4B1A90649778}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{07F2C58E-6E95-4640-AD82-5DADA60B4093}">
+          <x14:formula1>
+            <xm:f>Listas!$H$2:$H$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{856C8E16-AEED-4DAA-BDCB-4528284FDD9A}">
+          <x14:formula1>
+            <xm:f>Listas!$I$2:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{526F8296-5440-4FB5-B204-1CD20A0B8D35}">
+          <x14:formula1>
+            <xm:f>Listas!$F$2:$F$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{356F90FD-0912-4336-97E8-7D500BCC0D0D}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$C$2:$C$4</xm:f>
-          </x14:formula1>
           <xm:sqref>D2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$F$2:$F$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$H$2:$H$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$I$2:$I$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$K$2:$K$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>M2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -910,11 +856,98 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F8CB44-4820-4E6C-BC24-7CB5CC2355A7}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="60.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000134386</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.preaws.compensar.co/auth/pre-login" xr:uid="{F0D0303C-ED20-42D4-9F0D-A7066A5B76E2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D58C92D-F25C-4DDE-93C2-F3A2200079FE}">
+          <x14:formula1>
+            <xm:f>Listas!$F$2:$F$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E559DDE-4516-4F0F-BD71-71C8DBC34717}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{389F15D4-D21F-46AB-89EB-5B782CB855D1}">
+          <x14:formula1>
+            <xm:f>Listas!$I$2:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17DC3007-AABA-4398-B72C-985B6A19DDE3}">
+          <x14:formula1>
+            <xm:f>Listas!$H$2:$H$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -925,113 +958,176 @@
     <col min="4" max="4" width="5.54296875" style="7" customWidth="1"/>
     <col min="5" max="5" width="3.453125" style="7" customWidth="1"/>
     <col min="6" max="6" width="10.90625" style="7"/>
-    <col min="7" max="7" width="3.7265625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="7" customWidth="1"/>
     <col min="8" max="9" width="10.90625" style="7"/>
     <col min="10" max="10" width="4.6328125" style="7" customWidth="1"/>
     <col min="11" max="16384" width="10.90625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
+        <v>53021207</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1">
         <v>1000134386</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1000005222</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3">
         <v>1000078999</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="9">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1000134386</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9">
         <v>1002942252</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="N4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="10">
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="10">
         <v>53021207</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="N5" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1000005222</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/SQACompensar/Data/DatosCompensar.xlsx
+++ b/SQACompensar/Data/DatosCompensar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC26F24-5EDC-4A05-B004-2DEC2427460E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4D45E1-FCA7-47B9-8DC6-646B459E2CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -655,7 +655,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>53021207</v>
+        <v>1000005222</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -703,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>1000005222</v>
+        <v>53021207</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -728,8 +728,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{28918E51-C663-430C-9DEA-E7ECD7D24868}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{133E747A-44DB-45A8-8789-732216D6459D}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{FA965B1F-6DCF-49F5-BAA7-BE35DE7D4ACF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -753,17 +753,17 @@
           </x14:formula1>
           <xm:sqref>A2:A3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
-          <x14:formula1>
-            <xm:f>Listas!$N$2:$N$5</xm:f>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{701ED8FC-EC6C-4829-9157-9FA28D05CC5B}">
+          <x14:formula1>
+            <xm:f>Listas!$H$2:$H$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F1FA9FD1-1A0F-46B0-B911-17237450CBD5}">
+          <x14:formula1>
+            <xm:f>Listas!$I$2:$I$4</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65F150D7-12C3-4579-8550-9F8FBA3B7981}">
-          <x14:formula1>
-            <xm:f>Listas!$H$2:$H$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -860,7 +860,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -947,7 +947,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1046,7 +1046,7 @@
       <c r="F4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="14">
         <v>1000134386</v>
       </c>
       <c r="I4" t="s">
